--- a/zigamacss.xlsx
+++ b/zigamacss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bngog\Desktop\intern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bngog\Desktop\intern\css pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58F932F-A79B-43D2-BDA8-B9C2CB946C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D845C-3030-4A35-BE1C-A89D9CE90925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="924" windowWidth="17280" windowHeight="8880" xr2:uid="{1DBEF8F0-FDDC-401E-AE96-7970D76DAA6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1DBEF8F0-FDDC-401E-AE96-7970D76DAA6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Account</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>31/05/2028</t>
+  </si>
+  <si>
+    <t>CLASS</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -214,6 +217,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,22 +235,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -574,33 +571,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5AA04D-9705-4398-8768-4D17ECF1D82F}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="20"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,20 +635,23 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -687,20 +688,34 @@
       <c r="L2" s="10">
         <v>1</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="19">
+        <f>IF(OR(G2=0,G2="-"),0,
+IF(G2&lt;=29,1,
+IF(G2&lt;=89,2,
+IF(G2&lt;=179,3,
+IF(G2&lt;=360,4,
+5
+)
+)
+)
+)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="16">
         <v>3500000</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="16">
         <v>1000000</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="16">
         <v>25000000</v>
       </c>
-      <c r="P2" s="11">
+      <c r="Q2" s="16">
         <v>550000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -737,12 +752,26 @@
       <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="M3" s="19">
+        <f t="shared" ref="M3:M4" si="0">IF(OR(G3=0,G3="-"),0,
+IF(G3&lt;=29,1,
+IF(G3&lt;=89,2,
+IF(G3&lt;=179,3,
+IF(G3&lt;=360,4,
+5
+)
+)
+)
+)
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -779,38 +808,21 @@
       <c r="L4" s="10">
         <v>1</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="7">
-        <f>SUM(C2:C4)</f>
-        <v>30600000</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="M4" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
